--- a/stimulus_sheet.xlsx
+++ b/stimulus_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>stimulus</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>/Users/alexisyang/Desktop/9.60trial3/stimuli copy/ryan-wu-9R5FnAn5tYM-unsplash.jpeg</t>
+  </si>
+  <si>
+    <t>/Users/alexisyang/Desktop/9.60trial3/stimuli copy/samuel-clara-HkZVyO9l_Ig-unsplash.jpeg</t>
   </si>
 </sst>
 </file>
@@ -515,6 +518,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
